--- a/public/import/Import.xlsx
+++ b/public/import/Import.xlsx
@@ -359,7 +359,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
